--- a/mereni_MD/Prumery/Sval5.xlsx
+++ b/mereni_MD/Prumery/Sval5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\Prumery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8114D100-3968-4C05-BB7D-AEE01E19081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60FC81B-412C-4AE3-B4D3-C3544B29A966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,7 +371,7 @@
   <dimension ref="C5:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,7 +387,7 @@
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>AVERAGE(C$7:C$15)</f>
-        <v>16.173500000000001</v>
+        <v>1.6184499999999999</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:I5" si="0">AVERAGE(D$7:D$15)</f>
@@ -399,7 +399,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2.6440333333333332</v>
+        <v>0.26440333333333332</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -432,7 +432,7 @@
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>16.081</v>
+        <v>1.6081000000000001</v>
       </c>
       <c r="D7">
         <v>602.52</v>
@@ -441,7 +441,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="G7">
-        <v>2.6337000000000002</v>
+        <v>0.26336999999999999</v>
       </c>
       <c r="H7">
         <v>3.6080999999999999</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>16.288</v>
+        <v>1.6288</v>
       </c>
       <c r="D8">
         <v>572.89</v>
@@ -461,7 +461,7 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="G8">
-        <v>2.6433</v>
+        <v>0.26433000000000001</v>
       </c>
       <c r="H8">
         <v>-0.623</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>16.408000000000001</v>
+        <v>1.6408</v>
       </c>
       <c r="D9">
         <v>595.75</v>
@@ -481,7 +481,7 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="G9">
-        <v>2.6977000000000002</v>
+        <v>0.26977000000000001</v>
       </c>
       <c r="H9">
         <v>3.2317</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>16.297999999999998</v>
+        <v>1.6297999999999999</v>
       </c>
       <c r="D10">
         <v>583.23</v>
@@ -501,7 +501,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="G10">
-        <v>2.6735000000000002</v>
+        <v>0.26734999999999998</v>
       </c>
       <c r="H10">
         <v>1.4730000000000001</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>16.015999999999998</v>
+        <v>1.6015999999999999</v>
       </c>
       <c r="D11">
         <v>543.80999999999995</v>
@@ -521,7 +521,7 @@
         <v>0.99939999999999996</v>
       </c>
       <c r="G11">
-        <v>2.6002000000000001</v>
+        <v>0.26001999999999997</v>
       </c>
       <c r="H11">
         <v>-5.1037999999999997</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>15.95</v>
+        <v>1.6015999999999999</v>
       </c>
       <c r="D12">
         <v>609.5</v>
@@ -541,7 +541,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="G12">
-        <v>2.6158000000000001</v>
+        <v>0.26157999999999998</v>
       </c>
       <c r="H12">
         <v>5.8015999999999996</v>
